--- a/Sensor Mapping.xlsx
+++ b/Sensor Mapping.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasie\Dropbox\Pós-Graduação\Doutorado\Projeto Gêmeo\MatLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FDB1FD-DB2A-4213-B0D0-51B4B9FD81EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A83AAA-B9FD-4706-B190-A9BD8F9664BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart to Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="Distribution - Single" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribution - Continuous" sheetId="3" r:id="rId3"/>
+    <sheet name="Distribution - Counted" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="97">
   <si>
     <t>Trigger</t>
   </si>
@@ -144,6 +147,189 @@
   </si>
   <si>
     <t>2 Second Timer for A_74_Croute_In</t>
+  </si>
+  <si>
+    <t>F_82_Arm_2_Mag</t>
+  </si>
+  <si>
+    <t>O_80_Arm_Mag</t>
+  </si>
+  <si>
+    <t>O_70_SSTation</t>
+  </si>
+  <si>
+    <t>O_80_Arm_Del</t>
+  </si>
+  <si>
+    <t>F_82_Arm_2_Del</t>
+  </si>
+  <si>
+    <t>Arm Starts Moving</t>
+  </si>
+  <si>
+    <t>Arm Close to Arrive</t>
+  </si>
+  <si>
+    <t>Arm Arrives</t>
+  </si>
+  <si>
+    <t>Arm Arrives / Feed Parts</t>
+  </si>
+  <si>
+    <t>O_80_Pist_Back</t>
+  </si>
+  <si>
+    <t>F_82_Pist_Adv</t>
+  </si>
+  <si>
+    <t>O_80_Pist_Fwd</t>
+  </si>
+  <si>
+    <t>Part Fed</t>
+  </si>
+  <si>
+    <t>Piston Starts Moving Forward</t>
+  </si>
+  <si>
+    <t>Piston Starts Moving Back</t>
+  </si>
+  <si>
+    <t>Piston Arrives / Arms Starts Moving</t>
+  </si>
+  <si>
+    <t>Arm Close to Leave</t>
+  </si>
+  <si>
+    <t>Arm Arrives / Collects Parts</t>
+  </si>
+  <si>
+    <t>F_82_Suction_On</t>
+  </si>
+  <si>
+    <t>O_80_Part_Stuck</t>
+  </si>
+  <si>
+    <t>Part Stuck / Arm Starts Delivery</t>
+  </si>
+  <si>
+    <t>Arm Arrives / Delivers Part</t>
+  </si>
+  <si>
+    <t>F_82_Suction_Off</t>
+  </si>
+  <si>
+    <t>Part Delivered / Arm Return</t>
+  </si>
+  <si>
+    <t>C_85_Part_Del</t>
+  </si>
+  <si>
+    <t>F_83_Led_Extra1</t>
+  </si>
+  <si>
+    <t>C_83_RQ_Parts</t>
+  </si>
+  <si>
+    <t>C_86_Mag_Parts</t>
+  </si>
+  <si>
+    <t>N (~=0)</t>
+  </si>
+  <si>
+    <t>N=N-1 (~=0)</t>
+  </si>
+  <si>
+    <t>N(~=0)</t>
+  </si>
+  <si>
+    <t>Part Delivered / Feeds new part</t>
+  </si>
+  <si>
+    <t>Arm Arrives / Collects Parts (LOOP)</t>
+  </si>
+  <si>
+    <t>Part Fed (Checks LOOP)</t>
+  </si>
+  <si>
+    <t>Part Fed (Finish LOOP)</t>
+  </si>
+  <si>
+    <t>N-1 = 0</t>
+  </si>
+  <si>
+    <t>N=0</t>
+  </si>
+  <si>
+    <t>Arm Arrives (LOOP)</t>
+  </si>
+  <si>
+    <t>N (~=0; &lt;RQ)</t>
+  </si>
+  <si>
+    <t>C_75_Identified80</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>Checks LOOP Condition</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>C_75_RQ_Part_Del</t>
+  </si>
+  <si>
+    <t>C_75_Requested80</t>
+  </si>
+  <si>
+    <t>C_87_RQ_MParts</t>
+  </si>
+  <si>
+    <t>MP = MP-1 (~=0)</t>
+  </si>
+  <si>
+    <t>MP (~=0)</t>
+  </si>
+  <si>
+    <t>C_85_Single</t>
+  </si>
+  <si>
+    <t>C_85_Continuous</t>
+  </si>
+  <si>
+    <t>C_85_Couted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm Starts Moving </t>
+  </si>
+  <si>
+    <t>Inicial Move (LOOP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial Move </t>
+  </si>
+  <si>
+    <t>O_81_Start</t>
+  </si>
+  <si>
+    <t>C_75_RQ_Wrong</t>
+  </si>
+  <si>
+    <t>A_74_Croute_In80 + O_81_Key_Pos</t>
+  </si>
+  <si>
+    <t>C_85_Start</t>
+  </si>
+  <si>
+    <t>Starting Conditions</t>
+  </si>
+  <si>
+    <t>Strating Conditions</t>
+  </si>
+  <si>
+    <t>4 Second Timer for. C_85_Part_Del</t>
   </si>
 </sst>
 </file>
@@ -159,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +364,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -402,11 +600,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,22 +865,214 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,11 +1411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCC328-03F1-448D-8672-CAA7A3B86052}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,64 +1428,64 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -899,26 +1494,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
@@ -1582,22 +2177,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -1612,6 +2191,4939 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF92D8F-9A93-46EE-88A0-A73A718B23FA}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="16.36328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D25" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F6F7-3DDA-4E05-87F3-EA3F6AB597C7}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="16.36328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D33" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9937ED79-4EA1-455C-B927-A8D9AA008D60}">
+  <dimension ref="A1:Y28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="16.36328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V20" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="74"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="T26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D28" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Sensor Mapping.xlsx
+++ b/Sensor Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasie\Dropbox\Pós-Graduação\Doutorado\Projeto Gêmeo\MatLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A83AAA-B9FD-4706-B190-A9BD8F9664BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDBD2A-3160-4B4F-A4D4-DFE871B4E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart to Testing" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="97">
   <si>
     <t>Trigger</t>
   </si>
@@ -809,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +871,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,68 +994,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,128 +1024,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1376,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:B12"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,64 +1389,64 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="56" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1494,32 +1455,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1582,10 +1543,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1648,10 +1609,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1714,10 +1675,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1780,10 +1741,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1846,10 +1807,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1912,10 +1873,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1978,10 +1939,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2044,10 +2005,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,10 +2071,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2177,6 +2138,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -2191,22 +2168,6 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2214,13 +2175,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF92D8F-9A93-46EE-88A0-A73A718B23FA}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2228,182 +2189,175 @@
     <col min="1" max="16384" width="16.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="41" t="s">
+      <c r="I3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
+      <c r="P3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="78" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2412,59 +2366,52 @@
       <c r="I4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="35" t="s">
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62" t="s">
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="31" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -2473,120 +2420,106 @@
       <c r="J5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="35" t="s">
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="62" t="s">
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="16" t="s">
@@ -2598,175 +2531,154 @@
       <c r="M7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="35" t="s">
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="31" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="62" t="s">
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="31" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -2775,105 +2687,91 @@
       <c r="N10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="35" t="s">
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="31" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -2882,53 +2780,46 @@
       <c r="K12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="35" t="s">
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+      <c r="P12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -2937,19 +2828,19 @@
       <c r="J13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="35" t="s">
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -2958,56 +2849,49 @@
       <c r="Q13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+      <c r="R13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="35" t="s">
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -3019,151 +2903,130 @@
       <c r="R14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="62" t="s">
+      <c r="S14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="35" t="s">
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="35" t="s">
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62" t="s">
+      <c r="S15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="31" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="35" t="s">
+      <c r="J16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62" t="s">
+      <c r="P16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="16" t="s">
@@ -3172,86 +3035,79 @@
       <c r="K17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="35" t="s">
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62" t="s">
+      <c r="T17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="31" t="s">
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="35" t="s">
+      <c r="L18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="T18" s="7" t="s">
@@ -3260,50 +3116,43 @@
       <c r="U18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="62" t="s">
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="35" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="35" t="s">
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="15" t="s">
@@ -3318,81 +3167,67 @@
       <c r="U19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62" t="s">
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="32" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="35" t="s">
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T20" s="35" t="s">
+      <c r="P20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="62" t="s">
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="14" t="s">
@@ -3401,89 +3236,82 @@
       <c r="J21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="35" t="s">
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="35" t="s">
+      <c r="Q21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="62" t="s">
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="35" t="s">
+      <c r="J22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="31" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="T22" s="14" t="s">
@@ -3492,16 +3320,13 @@
       <c r="U22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="62" t="s">
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="11"/>
@@ -3550,44 +3375,17 @@
       <c r="U23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="V23" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D25" s="86" t="s">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D25" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="V1:V2"/>
+  <mergeCells count="41">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -3603,9 +3401,32 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3615,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F6F7-3DDA-4E05-87F3-EA3F6AB597C7}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
@@ -3632,160 +3453,160 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="56" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="41" t="s">
+      <c r="H3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="42" t="s">
+      <c r="O3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="78" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3794,55 +3615,52 @@
       <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="35" t="s">
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="27" t="s">
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -3851,112 +3669,106 @@
       <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="27" t="s">
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="35" t="s">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="27" t="s">
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="16" t="s">
@@ -3968,163 +3780,154 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="35" t="s">
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="27" t="s">
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="27" t="s">
+      <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="27" t="s">
+      <c r="O9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="14" t="s">
@@ -4133,97 +3936,91 @@
       <c r="M10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="27" t="s">
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="27" t="s">
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -4232,49 +4029,46 @@
       <c r="J12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="35" t="s">
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="27" t="s">
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -4283,19 +4077,19 @@
       <c r="I13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="35" t="s">
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O13" s="7" t="s">
@@ -4304,37 +4098,37 @@
       <c r="P13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="27" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -4352,148 +4146,139 @@
       <c r="N14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="59" t="s">
+      <c r="O14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="43" t="s">
         <v>7</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="42" t="s">
+      <c r="R14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="35" t="s">
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="35" t="s">
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="27" t="s">
+      <c r="R15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="31" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="35" t="s">
+      <c r="I16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="27" t="s">
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -4502,55 +4287,52 @@
       <c r="J17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="35" t="s">
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="27" t="s">
+      <c r="S17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="31" t="s">
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="16" t="s">
@@ -4559,25 +4341,25 @@
       <c r="K18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="35" t="s">
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="S18" s="7" t="s">
@@ -4588,26 +4370,23 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="45" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="8" t="s">
@@ -4616,16 +4395,16 @@
       <c r="L19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="35" t="s">
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="15" t="s">
@@ -4642,26 +4421,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="31" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -4670,109 +4446,103 @@
       <c r="L20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="50" t="s">
+      <c r="M20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="27" t="s">
+      <c r="O20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="31" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" s="27" t="s">
+      <c r="O21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="31" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L22" s="14" t="s">
@@ -4781,130 +4551,124 @@
       <c r="M22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="27" t="s">
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="31" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="35" t="s">
+      <c r="M23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="27" t="s">
+      <c r="P23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="32" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="35" t="s">
+      <c r="K24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="35" t="s">
+      <c r="O24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T24" s="10" t="s">
@@ -4912,17 +4676,14 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
@@ -4931,34 +4692,34 @@
       <c r="I25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="35" t="s">
+      <c r="J25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="35" t="s">
+      <c r="P25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="T25" s="10" t="s">
@@ -4966,50 +4727,47 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="35" t="s">
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="31" t="s">
+      <c r="P26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S26" s="14" t="s">
@@ -5020,11 +4778,11 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="44" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="11"/>
@@ -5039,7 +4797,7 @@
       <c r="I27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="11" t="s">
@@ -5051,10 +4809,10 @@
       <c r="M27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="N27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="35" t="s">
+      <c r="O27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P27" s="11" t="s">
@@ -5063,7 +4821,7 @@
       <c r="Q27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="44" t="s">
         <v>6</v>
       </c>
       <c r="S27" s="15" t="s">
@@ -5074,125 +4832,116 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="31" t="s">
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="52" t="s">
+      <c r="K28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="37" t="s">
         <v>71</v>
       </c>
       <c r="O28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="27" t="s">
+      <c r="P28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="32" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>7</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="35" t="s">
+      <c r="K29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" s="27" t="s">
+      <c r="P29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -5201,52 +4950,52 @@
       <c r="I30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="35" t="s">
+      <c r="J30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T30" s="27" t="s">
+      <c r="P30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="44" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -5273,31 +5022,63 @@
       <c r="O31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="T31" s="30" t="s">
+      <c r="P31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
@@ -5314,38 +5095,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5372,162 +5121,162 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="41" t="s">
+      <c r="H3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="41" t="s">
+      <c r="O3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="U3" s="20" t="s">
@@ -5542,67 +5291,67 @@
       <c r="X3" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="41" t="s">
+      <c r="I4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="41" t="s">
+      <c r="O4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="U4" s="20" t="s">
@@ -5617,22 +5366,19 @@
       <c r="X4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="37" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="15" t="s">
@@ -5641,49 +5387,49 @@
       <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="35" t="s">
+      <c r="O5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y5" s="10" t="s">
@@ -5691,68 +5437,65 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="35" t="s">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="35" t="s">
+      <c r="O6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y6" s="10" t="s">
@@ -5760,23 +5503,20 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="16" t="s">
@@ -5788,40 +5528,40 @@
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="35" t="s">
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X7" s="35" t="s">
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y7" s="10" t="s">
@@ -5829,68 +5569,65 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="35" t="s">
+      <c r="O8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y8" s="10" t="s">
@@ -5898,68 +5635,65 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" s="35" t="s">
+      <c r="O9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y9" s="10" t="s">
@@ -5967,29 +5701,26 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="31" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="14" t="s">
@@ -5998,37 +5729,37 @@
       <c r="M10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10" s="35" t="s">
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -6036,68 +5767,65 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W11" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X11" s="35" t="s">
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y11" s="10" t="s">
@@ -6105,20 +5833,17 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -6127,46 +5852,46 @@
       <c r="J12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="35" t="s">
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W12" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X12" s="35" t="s">
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y12" s="10" t="s">
@@ -6174,17 +5899,14 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="35" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -6193,19 +5915,19 @@
       <c r="I13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="35" t="s">
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O13" s="7" t="s">
@@ -6214,28 +5936,28 @@
       <c r="P13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X13" s="35" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y13" s="10" t="s">
@@ -6243,38 +5965,35 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="35" t="s">
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -6286,25 +6005,25 @@
       <c r="Q14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X14" s="35" t="s">
+      <c r="R14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y14" s="10" t="s">
@@ -6312,68 +6031,65 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="35" t="s">
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="35" t="s">
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" s="35" t="s">
+      <c r="R15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y15" s="10" t="s">
@@ -6381,68 +6097,65 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="35" t="s">
+      <c r="I16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16" s="35" t="s">
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y16" s="10" t="s">
@@ -6450,20 +6163,17 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -6472,46 +6182,46 @@
       <c r="J17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="35" t="s">
+      <c r="K17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X17" s="35" t="s">
+      <c r="S17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y17" s="10" t="s">
@@ -6519,50 +6229,47 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="31" t="s">
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="35" t="s">
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="27" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="S18" s="7" t="s">
@@ -6571,16 +6278,16 @@
       <c r="T18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X18" s="35" t="s">
+      <c r="U18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y18" s="10" t="s">
@@ -6588,44 +6295,41 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="35" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="35" t="s">
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q19" s="15" t="s">
@@ -6640,16 +6344,16 @@
       <c r="T19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" s="35" t="s">
+      <c r="U19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y19" s="10" t="s">
@@ -6657,68 +6361,65 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="32" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="22" t="s">
         <v>7</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="35" t="s">
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="U20" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W20" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X20" s="35" t="s">
+      <c r="O20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y20" s="10" t="s">
@@ -6726,17 +6427,14 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="35" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="14" t="s">
@@ -6745,49 +6443,49 @@
       <c r="I21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="35" t="s">
+      <c r="J21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="W21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="X21" s="35" t="s">
+      <c r="P21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y21" s="10" t="s">
@@ -6795,16 +6493,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
         <v>6</v>
       </c>
@@ -6832,19 +6530,19 @@
       <c r="O22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P22" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="70" t="s">
+      <c r="P22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="47" t="s">
         <v>7</v>
       </c>
       <c r="U22" s="11" t="s">
@@ -6864,16 +6562,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="11" t="s">
         <v>6</v>
       </c>
@@ -6937,152 +6635,165 @@
       <c r="A25" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="M25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="S25" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="U25" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="W25" s="73" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="49" t="s">
         <v>78</v>
       </c>
       <c r="X25" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="Y25" s="52" t="s">
+      <c r="Y25" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="74"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="R26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="S26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="T26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="U26" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="49" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="S26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="T26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="U26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="34" t="s">
         <v>7</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" s="53" t="s">
+      <c r="Y26" s="38" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="C1:C2"/>
@@ -7099,31 +6810,18 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Sensor Mapping.xlsx
+++ b/Sensor Mapping.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasie\Dropbox\Pós-Graduação\Doutorado\Projeto Gêmeo\MatLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDBD2A-3160-4B4F-A4D4-DFE871B4E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEE17D-6558-42FD-86AB-5A6D91D04FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{BB5634F2-5E84-405D-90C5-6C92823DCCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart to Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Distribution - Single" sheetId="2" r:id="rId2"/>
     <sheet name="Distribution - Continuous" sheetId="3" r:id="rId3"/>
     <sheet name="Distribution - Counted" sheetId="4" r:id="rId4"/>
+    <sheet name="Testing - Identified" sheetId="5" r:id="rId5"/>
+    <sheet name="Testing - Requested" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="143">
   <si>
     <t>Trigger</t>
   </si>
@@ -242,21 +244,9 @@
     <t>N(~=0)</t>
   </si>
   <si>
-    <t>Part Delivered / Feeds new part</t>
-  </si>
-  <si>
-    <t>Arm Arrives / Collects Parts (LOOP)</t>
-  </si>
-  <si>
-    <t>Part Fed (Checks LOOP)</t>
-  </si>
-  <si>
     <t>Part Fed (Finish LOOP)</t>
   </si>
   <si>
-    <t>N-1 = 0</t>
-  </si>
-  <si>
     <t>N=0</t>
   </si>
   <si>
@@ -330,6 +320,156 @@
   </si>
   <si>
     <t>4 Second Timer for. C_85_Part_Del</t>
+  </si>
+  <si>
+    <t>Arm Arrives / Feed Parts (LOOP)</t>
+  </si>
+  <si>
+    <t>N = 0</t>
+  </si>
+  <si>
+    <t>Check LOOP</t>
+  </si>
+  <si>
+    <t>N (~=0) or N=0</t>
+  </si>
+  <si>
+    <t>C_75_Identified</t>
+  </si>
+  <si>
+    <t>Parts Arrives in Elevator</t>
+  </si>
+  <si>
+    <t>O_70_Spart</t>
+  </si>
+  <si>
+    <t>C_75_ID_Delivery1</t>
+  </si>
+  <si>
+    <t>C_75_ID_Delivery2</t>
+  </si>
+  <si>
+    <t>C_75_Part_Del</t>
+  </si>
+  <si>
+    <t>True / False</t>
+  </si>
+  <si>
+    <t>O_70_Sinductive</t>
+  </si>
+  <si>
+    <t>If Part is Metallic</t>
+  </si>
+  <si>
+    <t>If Part is not Metallic</t>
+  </si>
+  <si>
+    <t>Elevator Up</t>
+  </si>
+  <si>
+    <t>F_72_Elev_Up</t>
+  </si>
+  <si>
+    <t>Elevator Starts Moving</t>
+  </si>
+  <si>
+    <t>O_70_Elev_Low</t>
+  </si>
+  <si>
+    <t>Elevator Passes Inductive Sensor</t>
+  </si>
+  <si>
+    <t>Elevator Passes Middle</t>
+  </si>
+  <si>
+    <t>O_70_Sstation</t>
+  </si>
+  <si>
+    <t>Elevator Arrives at high position</t>
+  </si>
+  <si>
+    <t>O_70_Elev_High</t>
+  </si>
+  <si>
+    <t>Checks for Part Color (if not Metallic)</t>
+  </si>
+  <si>
+    <t>Checks for Metallic Part</t>
+  </si>
+  <si>
+    <t>Metalic Part</t>
+  </si>
+  <si>
+    <t>Red Part</t>
+  </si>
+  <si>
+    <t>Black Part</t>
+  </si>
+  <si>
+    <t>O_70_Part_Height</t>
+  </si>
+  <si>
+    <t>2 second Delay</t>
+  </si>
+  <si>
+    <t>F_72_Eject_Part</t>
+  </si>
+  <si>
+    <t>F_72_Air_On</t>
+  </si>
+  <si>
+    <t>O_70_Pist_Back</t>
+  </si>
+  <si>
+    <t>Part Passes Height Sensor</t>
+  </si>
+  <si>
+    <t>Part Arrives at Cart</t>
+  </si>
+  <si>
+    <t>O_24_Optic</t>
+  </si>
+  <si>
+    <t>A_74_Cart_Full</t>
+  </si>
+  <si>
+    <t>F_73_Led_Extra2</t>
+  </si>
+  <si>
+    <t>Eject Piston Retracts</t>
+  </si>
+  <si>
+    <t>Eject Piston Advances</t>
+  </si>
+  <si>
+    <t>F_72_Elev_Down</t>
+  </si>
+  <si>
+    <t>Elevator Arrives at low positioon</t>
+  </si>
+  <si>
+    <t>A_74_Croute_Out</t>
+  </si>
+  <si>
+    <t>Chechk if RQ is the same as ID</t>
+  </si>
+  <si>
+    <t>C_75_RQ_Delivery1</t>
+  </si>
+  <si>
+    <t>C_75_RQ_Delivery2</t>
+  </si>
+  <si>
+    <t>IF Part is DIFFERENT</t>
+  </si>
+  <si>
+    <t>IF Part is EQUAL</t>
+  </si>
+  <si>
+    <t>Elevator Arrives / Ejects Part</t>
+  </si>
+  <si>
+    <t>O_70_SInductive</t>
   </si>
 </sst>
 </file>
@@ -377,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -672,17 +812,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -692,15 +821,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -750,19 +870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -805,11 +912,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,16 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,31 +1048,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -964,16 +1078,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,25 +1114,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,6 +1152,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,64 +1563,64 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="51" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1455,32 +1629,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1543,10 +1717,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
@@ -1609,10 +1783,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1675,10 +1849,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1741,10 +1915,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1807,10 +1981,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1873,10 +2047,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1939,10 +2113,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2005,10 +2179,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2071,10 +2245,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
@@ -2177,11 +2351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF92D8F-9A93-46EE-88A0-A73A718B23FA}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2194,61 +2368,61 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="C1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2257,41 +2431,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -2341,23 +2515,23 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="65"/>
+      <c r="A4" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="60"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="D4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2404,10 +2578,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2455,10 +2629,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2506,10 +2680,10 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2557,10 +2731,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2608,10 +2782,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2659,10 +2833,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2710,10 +2884,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2761,10 +2935,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2812,10 +2986,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2863,10 +3037,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2914,10 +3088,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2965,10 +3139,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3016,10 +3190,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3067,10 +3241,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3118,10 +3292,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3169,10 +3343,10 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3220,10 +3394,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3271,10 +3445,10 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3488,7 @@
       <c r="S22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="U22" s="7" t="s">
@@ -3322,10 +3496,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="65"/>
+      <c r="A23" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="78"/>
       <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3543,7 @@
       <c r="S23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="U23" s="8" t="s">
@@ -3377,12 +3551,12 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="D25" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
+      <c r="D25" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -3391,6 +3565,8 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
@@ -3398,9 +3574,7 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -3413,14 +3587,14 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -3434,13 +3608,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F6F7-3DDA-4E05-87F3-EA3F6AB597C7}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3453,58 +3627,58 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="56" t="s">
+      <c r="C1" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="51" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3513,37 +3687,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -3593,20 +3767,20 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3653,11 +3827,11 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3704,11 +3878,11 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3717,10 +3891,10 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -3755,62 +3929,65 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="A7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="10" t="s">
+      <c r="O7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3828,7 +4005,7 @@
       <c r="K8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
@@ -3857,11 +4034,11 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3908,11 +4085,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3959,11 +4136,11 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -4010,11 +4187,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -4026,7 +4203,7 @@
       <c r="I12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -4061,11 +4238,11 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4112,65 +4289,63 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="55"/>
+      <c r="A14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="37"/>
       <c r="G14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="20" t="s">
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="43" t="s">
+      <c r="O14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="30" t="s">
+      <c r="R14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -4217,11 +4392,11 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4268,11 +4443,11 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -4319,11 +4494,11 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4335,10 +4510,10 @@
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -4350,10 +4525,10 @@
       <c r="N18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="27" t="s">
+      <c r="O18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Q18" s="14" t="s">
@@ -4362,121 +4537,124 @@
       <c r="R18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" s="7" t="s">
+      <c r="S18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4488,22 +4666,22 @@
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="J21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>6</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -4516,18 +4694,18 @@
         <v>6</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T21" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="39" t="s">
+      <c r="A22" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -4536,26 +4714,26 @@
       <c r="H22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>7</v>
+      <c r="I22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="15" t="s">
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>6</v>
@@ -4567,45 +4745,45 @@
         <v>6</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="39" t="s">
+      <c r="A23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>7</v>
+      <c r="H23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -4618,446 +4796,89 @@
         <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="70" t="s">
+      <c r="A24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D33" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
+      <c r="O24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="41">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -5067,34 +4888,24 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5108,7 +4919,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5121,74 +4932,74 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="56" t="s">
+      <c r="W1" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="56" t="s">
-        <v>81</v>
+      <c r="Y1" s="51" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5196,42 +5007,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="53" t="s">
+      <c r="D3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -5259,60 +5070,60 @@
         <v>6</v>
       </c>
       <c r="N3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="V3" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="71"/>
+      <c r="A4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="67"/>
       <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -5355,27 +5166,27 @@
         <v>6</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -5421,27 +5232,27 @@
         <v>6</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -5487,27 +5298,27 @@
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -5553,27 +5364,27 @@
         <v>6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5619,27 +5430,27 @@
         <v>6</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -5685,27 +5496,27 @@
         <v>6</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5751,27 +5562,27 @@
         <v>6</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5817,27 +5628,27 @@
         <v>6</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -5883,27 +5694,27 @@
         <v>6</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5949,27 +5760,27 @@
         <v>6</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -6015,27 +5826,27 @@
         <v>6</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -6081,27 +5892,27 @@
         <v>6</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -6147,27 +5958,27 @@
         <v>6</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -6213,27 +6024,27 @@
         <v>6</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -6279,27 +6090,27 @@
         <v>6</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -6345,27 +6156,27 @@
         <v>7</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -6411,27 +6222,27 @@
         <v>7</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="36" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -6477,26 +6288,26 @@
         <v>7</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="71"/>
+      <c r="A22" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="67"/>
       <c r="C22" s="32" t="s">
         <v>7</v>
       </c>
@@ -6539,33 +6350,33 @@
       <c r="R22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="47" t="s">
+      <c r="S22" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="42" t="s">
         <v>7</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="61"/>
+      <c r="A23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="80"/>
       <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
@@ -6608,171 +6419,171 @@
       <c r="R23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49" t="s">
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="V26" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="M25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="S25" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="U25" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="W25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="X25" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y25" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="R26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="S26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="T26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="U26" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y26" s="38" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D28" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -6825,4 +6636,5570 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DDA6DA-BA88-4DA9-99B2-75D3AA3CAB70}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="16.36328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="C18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="T30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="U30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195A7F30-552F-4172-9FE6-2B17FFA2D3B5}">
+  <dimension ref="A1:Z43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16" width="16.36328125" style="1"/>
+    <col min="17" max="18" width="16.36328125" style="88"/>
+    <col min="19" max="16384" width="16.36328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="C18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R28" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R29" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="78"/>
+      <c r="C33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="R33" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R34" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R35" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R36" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R37" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R38" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R39" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R40" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R41" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="R42" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="78"/>
+      <c r="C43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="R43" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>